--- a/PROJET/CRA/CRA_ETL_20-10-10.xlsx
+++ b/PROJET/CRA/CRA_ETL_20-10-10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="CRA" sheetId="22" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -84,11 +84,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,7 +737,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -772,7 +771,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -948,14 +946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -967,7 +965,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="36" t="s">
         <v>14</v>
@@ -979,7 +977,7 @@
       <c r="G1" s="36"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -998,7 +996,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
       <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1010,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="40.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1023,7 +1021,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="9" t="s">
@@ -1045,7 +1043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1089,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1101,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1113,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1142,7 +1140,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="38.25" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1154,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="27"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -1166,7 +1164,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="27"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -1176,7 +1174,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="27"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -1186,7 +1184,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="27"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -1196,7 +1194,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="27"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -1206,7 +1204,7 @@
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="27"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -1216,7 +1214,7 @@
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="27"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -1226,7 +1224,7 @@
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="27"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -1236,7 +1234,7 @@
       <c r="G21" s="31"/>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="27"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -1246,7 +1244,7 @@
       <c r="G22" s="31"/>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="27"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -1256,7 +1254,7 @@
       <c r="G23" s="31"/>
       <c r="H23" s="32"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="27"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -1266,7 +1264,7 @@
       <c r="G24" s="31"/>
       <c r="H24" s="32"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="27"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -1276,7 +1274,7 @@
       <c r="G25" s="31"/>
       <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="27"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -1286,7 +1284,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="27"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -1296,7 +1294,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="27"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -1306,7 +1304,7 @@
       <c r="G28" s="31"/>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="27"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -1316,7 +1314,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="32"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="27"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -1326,7 +1324,7 @@
       <c r="G30" s="31"/>
       <c r="H30" s="32"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="27"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -1336,7 +1334,7 @@
       <c r="G31" s="31"/>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="28"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
